--- a/JupyterNotebooks/AveragedIntensites-Exp/TRIP700F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites-Exp/TRIP700F.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,56 +1221,56 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HexGrid-90degTilt5degRes</t>
+          <t>HexGrid-90degTilt22p5degRes</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9913888083855734</v>
+        <v>0.9962711847450469</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9925452757136938</v>
+        <v>1.024484057118631</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9920865509409903</v>
+        <v>0.9800733797513054</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9913888083855734</v>
+        <v>0.9962711847450469</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9913043364302837</v>
+        <v>1.003022291033661</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9918818382650739</v>
+        <v>0.9493044161266583</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9907694661010822</v>
+        <v>0.9849159211465285</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9925452757136938</v>
+        <v>1.024484057118631</v>
       </c>
       <c r="K14" t="n">
-        <v>0.992315913327342</v>
+        <v>1.002278718434968</v>
       </c>
       <c r="L14" t="n">
-        <v>0.992315913327342</v>
+        <v>1.002278718434968</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9919787210283225</v>
+        <v>1.002526575967866</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9920068783467525</v>
+        <v>1.000276207204994</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9920068783467525</v>
+        <v>1.000276207204994</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9918523608564577</v>
+        <v>0.9992749515900076</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9918523608564577</v>
+        <v>0.9992749515900076</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9916627126394495</v>
+        <v>0.9896785416536386</v>
       </c>
     </row>
     <row r="15">
@@ -1793,6 +1793,122 @@
       </c>
       <c r="R23" t="n">
         <v>1.028139072878077</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RotRing Axis-Y Res-5.0 Theta-2.5 </t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.094158279047945</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9825085832841221</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9739822544564739</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.094158279047945</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9830592557089054</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9326454767543161</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9896574582828167</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9825085832841221</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.978245418870298</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.978245418870298</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9798500311498338</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.016883038929514</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.016883038929514</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.036201848959122</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.036201848959122</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.9926685512557633</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RotRing Axis-Y Res-5.0 Theta-5.0 </t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.06599751326105</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9810743972284031</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9744221026686969</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.06599751326105</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9853220114063632</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9373256167378322</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9906302355607136</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9810743972284031</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9777482499485499</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9777482499485499</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9802728371011543</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.007164671052717</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.007164671052717</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.0218728816048</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.0218728816048</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.9891286461438432</v>
       </c>
     </row>
   </sheetData>
